--- a/biology/Biologie cellulaire et moléculaire/Prix_Charles-Léopold-Mayer/Prix_Charles-Léopold-Mayer.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Prix_Charles-Léopold-Mayer/Prix_Charles-Léopold-Mayer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Charles-L%C3%A9opold-Mayer</t>
+          <t>Prix_Charles-Léopold-Mayer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Prix Charles-Léopold Mayer est décerné annuellement par l'Académie des sciences à des chercheurs qui ont approfondi la compréhension en biologie cellulaire et moléculaire, génomique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Charles-L%C3%A9opold-Mayer</t>
+          <t>Prix_Charles-Léopold-Mayer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix est créé par Charles Léopold Mayer et décerné pour la première fois en 1955. La Société de chimie biologique est alors chargée de le décerner. Ce prix de 500 000 francs récompense ou favorise des « travaux de recherches sur la synthèse, la structure ou le métabolisme des nucléoprotéines » d'un chercheur ou d'un groupe de chercheurs, âgés de plus de 30 ans et moins de 65 ans, pour des travaux originaux récents. Une commission chargée de distribuer le prix comprend Charles Léopold Mayer, le bureau de la Société et six membres du Conseil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix est créé par Charles Léopold Mayer et décerné pour la première fois en 1955. La Société de chimie biologique est alors chargée de le décerner. Ce prix de 500 000 francs récompense ou favorise des « travaux de recherches sur la synthèse, la structure ou le métabolisme des nucléoprotéines » d'un chercheur ou d'un groupe de chercheurs, âgés de plus de 30 ans et moins de 65 ans, pour des travaux originaux récents. Une commission chargée de distribuer le prix comprend Charles Léopold Mayer, le bureau de la Société et six membres du Conseil.
 Charles Léopold Mayer crée un nouveau prix, décerné par l'Académie des sciences dès 1961. Les citoyens ou résidents de toute nation sont éligibles pour le prix, mais il n'est jamais décerné à des personnes de la même nation deux années de suite, et le prix n'est jamais décerné à des chercheurs de plus de 65 ans. Depuis la première remise en 1960, dix lauréats ont par la suite reçu un Prix Nobel en médecine ou physiologie, ou en chimie.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_Charles-L%C3%A9opold-Mayer</t>
+          <t>Prix_Charles-Léopold-Mayer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Liste des lauréats du prix décerné par la Société de chimie biologique (1955-1963)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1955 : Severo Ochoa et Marianne Grunberg-Manago
 1956 : Yvonne Khouvine et Paul Mandel
 1957 : Jean Brachet
 1958 : François Gros et Jean Turchini.
-1959 : Éliane Le Breton et Emanoil Barbu[2].
+1959 : Éliane Le Breton et Emanoil Barbu.
 1960 : Roger Monier et Mirko Beljanski
 1962 : François Chapeville
 1963 : Jekisiel Szulmajster.</t>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prix_Charles-L%C3%A9opold-Mayer</t>
+          <t>Prix_Charles-Léopold-Mayer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,16 +598,18 @@
           <t>Liste des lauréats du prix de l'Académie des Sciences (1961-)[3]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 2023 : Benjamin Simons (en), professeur Edward Penley Abraham à la Royal Society, titulaire de la Chaire Herchel Smith en physique au laboratoire Cavendish de l'université de Cambridge.
-2021 : Carsten Janke, directeur de recherche au CNRS, chef d'équipe de recherche à l'Institut Curie[4]
+2021 : Carsten Janke, directeur de recherche au CNRS, chef d'équipe de recherche à l'Institut Curie
 2019 : Silvia Arber, professeure au Biozentrum de l'Université de Bâle.
 2018 : Éric Gilson, professeur des universités à l’université de Nice Sophia-Antipolis, praticien hospitalier au CHU de Nice.
 2016 : Claude Desplan (en), professeur au département de biologie de l’université de New York.
-2015 : François Schweisguth, directeur de recherche au CNRS, directeur de l’unité Génétique du développement de la drosophile à l’Institut Pasteur à Paris[4].
-2014 : Charles David Allis (en), directeur du laboratoire Chromatin Biology and Epigenetics, professeur à l'Université Rockefeller de New-York[4].
+2015 : François Schweisguth, directeur de recherche au CNRS, directeur de l’unité Génétique du développement de la drosophile à l’Institut Pasteur à Paris.
+2014 : Charles David Allis (en), directeur du laboratoire Chromatin Biology and Epigenetics, professeur à l'Université Rockefeller de New-York.
 2013 : Vincent Colot
 2012 : Lyndon Emsley
 2011 : Jean-Marc Reichhart
@@ -619,7 +637,7 @@
 1989 : Marc Chabre
 1988 : David D. Sabatini (en)
 1987 : Paul Cohen
-1986 : Antonio García-Bellido (es) et Walter Gehring (travaux sur la mouche drosophile)[5]
+1986 : Antonio García-Bellido (es) et Walter Gehring (travaux sur la mouche drosophile)
 1985 : Jean Montreuil
 1984 : John Gurdon
 1983 : Michel Lazdunski et Vittorio Luzzati
@@ -627,10 +645,10 @@
 1981 : François Chapeville et Léon Hirth
 1980 : Philippe L'Héritier
 1979 : David Mervyn Blow et David Chilton Phillips
-1978 : Roger Monier (biologie moléculaire) et Piotr Slonimski (mitochondrie de la levure et ses travaux sur les enzymes respiratoires) [6]
-1977 : Walter Gilbert, Mark Ptashne et Evelyn Witkin[7]
+1978 : Roger Monier (biologie moléculaire) et Piotr Slonimski (mitochondrie de la levure et ses travaux sur les enzymes respiratoires) 
+1977 : Walter Gilbert, Mark Ptashne et Evelyn Witkin
 1976 : Jean-Pierre Ebel et Élie Wollman
-1975 : Sydney Brenner et Seymour Benzer[8]
+1975 : Sydney Brenner et Seymour Benzer
 1974 : Georges Cohen
 1973 : Jacques Oudin
 1972 : Robert W. Briggs (en) et Thomas J. King (en)
@@ -640,11 +658,11 @@
 1968 : François Gros
 1967 : Marshall Warren Nirenberg
 1966 : Marianne Grunberg-Manago
-1965 : Honor Fell (en)[9]
+1965 : Honor Fell (en)
 1964 : André Lwoff
-1963 : Erwin Chargaff[10]
-1962 : François Jacob[11] et Jacques Monod
-1961 : Francis Crick[12]
+1963 : Erwin Chargaff
+1962 : François Jacob et Jacques Monod
+1961 : Francis Crick
 </t>
         </is>
       </c>
